--- a/13_APC/03 用户apc执行过程.xlsx
+++ b/13_APC/03 用户apc执行过程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\13_APC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC169256-5DEE-4EF2-8D1D-30E3BC2957DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2C633-7FB3-4450-A499-AC7027A5491D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>apc链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,14 @@
   </si>
   <si>
     <t>将原来的_KTRAP_FRAME结构体保存起来，之后建立一个新的，往里面写入返回时执行的ESP(栈地址)与EIP(代码地址)，之后返回三环执行。</t>
+  </si>
+  <si>
+    <t>第一个处理内核apc，第二个处理用户apc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有该标志位有效，Alerted才会生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3900,7 +3908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670FD39-9129-47FE-9821-7AB21ABB1B1D}">
   <dimension ref="B2:R66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3908,10 +3918,16 @@
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -4616,7 +4632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FE9FC8-6AFD-411A-A001-3A64A8FCDFB1}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
